--- a/Data/Excels/Synthetic/Resumes/Experiment 2.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Experiment 2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.470000000000001</v>
+        <v>-17.14</v>
       </c>
       <c r="F2" t="n">
-        <v>68.59999999999999</v>
+        <v>73.41</v>
       </c>
       <c r="G2" t="n">
         <v>62.72</v>
       </c>
       <c r="H2" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>68.86</v>
+        <v>67.77</v>
       </c>
       <c r="J2" t="n">
         <v>70.53</v>
       </c>
       <c r="K2" t="n">
-        <v>4.42</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>69.84999999999999</v>
+        <v>73.77</v>
       </c>
       <c r="M2" t="n">
         <v>73.05</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>14.38</v>
+        <v>12.31</v>
       </c>
       <c r="F3" t="n">
-        <v>55.99</v>
+        <v>57.35</v>
       </c>
       <c r="G3" t="n">
         <v>65.2</v>
       </c>
       <c r="H3" t="n">
-        <v>12.82</v>
+        <v>11.64</v>
       </c>
       <c r="I3" t="n">
-        <v>60.12</v>
+        <v>60.94</v>
       </c>
       <c r="J3" t="n">
         <v>68.8</v>
       </c>
       <c r="K3" t="n">
-        <v>27.45</v>
+        <v>27.34</v>
       </c>
       <c r="L3" t="n">
-        <v>57.2</v>
+        <v>57.29</v>
       </c>
       <c r="M3" t="n">
         <v>78.8</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.33</v>
+        <v>11.85</v>
       </c>
       <c r="F4" t="n">
-        <v>62.81</v>
+        <v>53.08</v>
       </c>
       <c r="G4" t="n">
         <v>60.12</v>
       </c>
       <c r="H4" t="n">
-        <v>7.47</v>
+        <v>22.11</v>
       </c>
       <c r="I4" t="n">
-        <v>63.22</v>
+        <v>53.22</v>
       </c>
       <c r="J4" t="n">
         <v>68.42</v>
       </c>
       <c r="K4" t="n">
-        <v>18.98</v>
+        <v>16.25</v>
       </c>
       <c r="L4" t="n">
-        <v>56.66</v>
+        <v>58.57</v>
       </c>
       <c r="M4" t="n">
         <v>69.84</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.1</v>
+        <v>-6.4</v>
       </c>
       <c r="F5" t="n">
-        <v>69.86</v>
+        <v>64.58</v>
       </c>
       <c r="G5" t="n">
         <v>60.71</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.85</v>
+        <v>8.76</v>
       </c>
       <c r="I5" t="n">
-        <v>71.66</v>
+        <v>64.2</v>
       </c>
       <c r="J5" t="n">
         <v>70.33</v>
       </c>
       <c r="K5" t="n">
-        <v>-46.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>102.73</v>
+        <v>66.45</v>
       </c>
       <c r="M5" t="n">
         <v>70.2</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>30.62</v>
+        <v>12.84</v>
       </c>
       <c r="F6" t="n">
-        <v>35.98</v>
+        <v>45.2</v>
       </c>
       <c r="G6" t="n">
         <v>51.9</v>
       </c>
       <c r="H6" t="n">
-        <v>21.07</v>
+        <v>16.11</v>
       </c>
       <c r="I6" t="n">
-        <v>48.21</v>
+        <v>51.24</v>
       </c>
       <c r="J6" t="n">
         <v>61.1</v>
       </c>
       <c r="K6" t="n">
-        <v>26.58</v>
+        <v>49.07</v>
       </c>
       <c r="L6" t="n">
-        <v>45.1</v>
+        <v>31.29</v>
       </c>
       <c r="M6" t="n">
         <v>61.4</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4.84</v>
+        <v>13.25</v>
       </c>
       <c r="F7" t="n">
-        <v>58.63</v>
+        <v>53.45</v>
       </c>
       <c r="G7" t="n">
         <v>61.61</v>
       </c>
       <c r="H7" t="n">
-        <v>17.82</v>
+        <v>32.76</v>
       </c>
       <c r="I7" t="n">
-        <v>58.47</v>
+        <v>47.84</v>
       </c>
       <c r="J7" t="n">
         <v>71.13</v>
       </c>
       <c r="K7" t="n">
-        <v>-101.54</v>
+        <v>28.45</v>
       </c>
       <c r="L7" t="n">
-        <v>144.49</v>
+        <v>51.29</v>
       </c>
       <c r="M7" t="n">
         <v>71.67</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>34.76</v>
+        <v>35.63</v>
       </c>
       <c r="F8" t="n">
-        <v>39.56</v>
+        <v>39.03</v>
       </c>
       <c r="G8" t="n">
         <v>60.73</v>
       </c>
       <c r="H8" t="n">
-        <v>18.17</v>
+        <v>20.6</v>
       </c>
       <c r="I8" t="n">
-        <v>55.93</v>
+        <v>54.27</v>
       </c>
       <c r="J8" t="n">
         <v>68.31999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>40.83</v>
+        <v>31.95</v>
       </c>
       <c r="L8" t="n">
-        <v>44.14</v>
+        <v>50.77</v>
       </c>
       <c r="M8" t="n">
         <v>74.59</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>6.1</v>
+        <v>6.86</v>
       </c>
       <c r="F9" t="n">
-        <v>54.76</v>
+        <v>54.32</v>
       </c>
       <c r="G9" t="n">
         <v>58.35</v>
       </c>
       <c r="H9" t="n">
-        <v>16.52</v>
+        <v>23.53</v>
       </c>
       <c r="I9" t="n">
-        <v>56.44</v>
+        <v>51.7</v>
       </c>
       <c r="J9" t="n">
         <v>67.56</v>
       </c>
       <c r="K9" t="n">
-        <v>17.75</v>
+        <v>20.07</v>
       </c>
       <c r="L9" t="n">
-        <v>57.86</v>
+        <v>56.23</v>
       </c>
       <c r="M9" t="n">
         <v>70.25</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>36.25</v>
+        <v>52.19</v>
       </c>
       <c r="F10" t="n">
-        <v>28.87</v>
+        <v>21.65</v>
       </c>
       <c r="G10" t="n">
         <v>45.31</v>
       </c>
       <c r="H10" t="n">
-        <v>47.47</v>
+        <v>74.67</v>
       </c>
       <c r="I10" t="n">
-        <v>30.8</v>
+        <v>14.85</v>
       </c>
       <c r="J10" t="n">
         <v>58.63</v>
       </c>
       <c r="K10" t="n">
-        <v>50.24</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>29.71</v>
+        <v>13.37</v>
       </c>
       <c r="M10" t="n">
         <v>59.66</v>
@@ -903,31 +903,461 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-57.18</v>
+        <v>-3.12</v>
       </c>
       <c r="F11" t="n">
-        <v>81.29000000000001</v>
+        <v>53.33</v>
       </c>
       <c r="G11" t="n">
         <v>51.72</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.83</v>
+        <v>17.91</v>
       </c>
       <c r="I11" t="n">
-        <v>68.95999999999999</v>
+        <v>52.99</v>
       </c>
       <c r="J11" t="n">
         <v>64.58</v>
       </c>
       <c r="K11" t="n">
-        <v>-1178.35</v>
+        <v>10.83</v>
       </c>
       <c r="L11" t="n">
-        <v>833.41</v>
+        <v>58.13</v>
       </c>
       <c r="M11" t="n">
         <v>65.19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>402.84</v>
+      </c>
+      <c r="G12" t="n">
+        <v>408.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>403.28</v>
+      </c>
+      <c r="J12" t="n">
+        <v>403.14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>120.84</v>
+      </c>
+      <c r="M12" t="n">
+        <v>424.88</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>216.48</v>
+      </c>
+      <c r="G13" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I13" t="n">
+        <v>577.8099999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>215.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>621.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F14" t="n">
+        <v>336.94</v>
+      </c>
+      <c r="G14" t="n">
+        <v>341.67</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>337.92</v>
+      </c>
+      <c r="K14" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="L14" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>360.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>205.21</v>
+      </c>
+      <c r="G15" t="n">
+        <v>202.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="J15" t="n">
+        <v>205.04</v>
+      </c>
+      <c r="K15" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="L15" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>208.27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>175.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="n">
+        <v>178.43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>178.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>83.84999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>206.49</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>209.08</v>
+      </c>
+      <c r="J17" t="n">
+        <v>209.73</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="M17" t="n">
+        <v>211.43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>144.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I18" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="L18" t="n">
+        <v>145.07</v>
+      </c>
+      <c r="M18" t="n">
+        <v>152.23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>46.55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>70.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>132.35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I19" t="n">
+        <v>132.04</v>
+      </c>
+      <c r="J19" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="M19" t="n">
+        <v>142.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>115.71</v>
+      </c>
+      <c r="H20" t="n">
+        <v>61.23</v>
+      </c>
+      <c r="I20" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="J20" t="n">
+        <v>124.36</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="L20" t="n">
+        <v>119.17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>125.24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>83.95999999999999</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="F21" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="G21" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60.17</v>
+      </c>
+      <c r="I21" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="J21" t="n">
+        <v>129.59</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>123.85</v>
+      </c>
+      <c r="M21" t="n">
+        <v>129.51</v>
       </c>
     </row>
   </sheetData>
